--- a/medicine/Enfance/Trotro/Trotro.xlsx
+++ b/medicine/Enfance/Trotro/Trotro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Trotro ou l’âne Trotro, est une série de livres de littérature-jeunesse créé par Bénédicte Guettier et publiés par Calmus Maxi depuis 2000. La série compte plus de cent-cinquante volumes[1].
-L'Âne Trotro a fait l'objet d'une série télévisée d'animation française en 78 épisodes de 4 minutes, réalisée par Storimages et 2Minutes et diffusée depuis le 23 octobre 2004 sur France 5. En bretagne, la série a été doublée en breton et diffusée à partir du 28 septembre 2021 sur BreizhVOD[2]
-L'âne Trotro est également adapté en comédie musicale sous le titre Trotro fait son cirque qui s'est joué aux Folies Bergères à Paris du 5 novembre 2014 au 3 décembre 2015[3],[1]. Une tournée dans toute la France a également eu lieu d'octobre 2015 à novembre 2016[réf. nécessaire].
+Trotro ou l’âne Trotro, est une série de livres de littérature-jeunesse créé par Bénédicte Guettier et publiés par Calmus Maxi depuis 2000. La série compte plus de cent-cinquante volumes.
+L'Âne Trotro a fait l'objet d'une série télévisée d'animation française en 78 épisodes de 4 minutes, réalisée par Storimages et 2Minutes et diffusée depuis le 23 octobre 2004 sur France 5. En bretagne, la série a été doublée en breton et diffusée à partir du 28 septembre 2021 sur BreizhVOD
+L'âne Trotro est également adapté en comédie musicale sous le titre Trotro fait son cirque qui s'est joué aux Folies Bergères à Paris du 5 novembre 2014 au 3 décembre 2015,. Une tournée dans toute la France a également eu lieu d'octobre 2015 à novembre 2016[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Trotro
 L'âne Trotro est un petit âne gris avec une jolie crinière blanche. Espiègle et enthousiaste, il voit toujours le bon côté des choses et ne manque pas une occasion de s'amuser. Il n'est pas très ordonné mais a beaucoup d'imagination. Il adore jouer dans les flaques d'eau et déteste prendre son bain et manger des sardines.
@@ -565,13 +579,85 @@
           <t>Série télévisée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Trotro est une série télévisée d'animation française en 78 épisodes de 3 minutes 30, réalisée par Éric Cazes et Stéphane Lezoray, produite par Storimages et 2 Minutes et diffusée depuis le 25 octobre 2004 sur France 5 dans Midi les Zouzous, elle est aussi diffusée sur Piwi depuis 2005 et TV5 Monde.
-Synopsis
-La série met en scène Trotro, un petit âne gris, avec ses amis Lili, Boubou et Nana, tous trois des ânons, dans des scènes de la vie quotidienne.
-Fiche technique de la série télévisée
-Titre : Trotro
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trotro est une série télévisée d'animation française en 78 épisodes de 3 minutes 30, réalisée par Éric Cazes et Stéphane Lezoray, produite par Storimages et 2 Minutes et diffusée depuis le 25 octobre 2004 sur France 5 dans Midi les Zouzous, elle est aussi diffusée sur Piwi depuis 2005 et TV5 Monde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Trotro</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trotro</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Série télévisée</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série met en scène Trotro, un petit âne gris, avec ses amis Lili, Boubou et Nana, tous trois des ânons, dans des scènes de la vie quotidienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Trotro</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trotro</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Série télévisée</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fiche technique de la série télévisée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Titre : Trotro
 Réalisation : Éric Cazes et Stéphane Lezoray
 Scénario : Marie-Luz Drouet (supervision) d'après les livres de Bénédicte Guettier
 Décors : Évelyne Badami
@@ -582,26 +668,132 @@
 Sociétés de production : Storimages, 2 Minutes
 Nombre d'épisodes : 78 (2 saisons)
 Durée : 3 minutes
-Date de première diffusion : 2004 (France 5)
-Personnages
-Trotro : Le personnage principal.
+Date de première diffusion : 2004 (France 5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Trotro</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trotro</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Série télévisée</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Trotro : Le personnage principal.
 La mère de Trotro : Elle donne un amour inconditionnel à son fils et prend beaucoup soin de lui.
 Le père de Trotro : Il aide Trotro à apprendre et grandir. Il est intelligent et aime parfois lire.
 Nounours : L'ours en peluche de Trotro.
 Lili : La meilleure amie de Trotro. Ils jouent toujours ensemble.
 Boubou : Le meilleur ami de Trotro. Il court très vite.
-Nana : L'amoureuse de Trotro. Elle aime beaucoup ce dernier.
-Voix françaises
-Gwenvin Sommier : l'âne Trotro
+Nana : L'amoureuse de Trotro. Elle aime beaucoup ce dernier.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Trotro</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trotro</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Série télévisée</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Gwenvin Sommier : l'âne Trotro
 Florine Orphelin : Lili
 Muriel Flory : la mère de Trotro
 Vincent Jaspard : le père de Trotro
 Caroline Combes : Nana
 Simon Koukissa : Boubou
 Version originale
-Direction artistique : Valérie Siclay
-Épisodes
-Saison 1
+Direction artistique : Valérie Siclay</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Trotro</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trotro</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Série télévisée</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Saison 1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Trotro joue à cache-cache
 Trotro a un beau cartable
 Trotro est un petit monstre
@@ -640,8 +832,47 @@
 Trotro arrose
 Trotro et le hérisson
 Trotro fait du roller
-Trotro et le poisson rouge
-Saison 2
+Trotro et le poisson rouge</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Trotro</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trotro</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Série télévisée</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Saison 2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Trotro champion de judo
 Trotro et le sac porte-bonheur
 Trotro et la tortue
